--- a/biology/Médecine/Maladie_de_Köhler-Mouchet/Maladie_de_Köhler-Mouchet.xlsx
+++ b/biology/Médecine/Maladie_de_Köhler-Mouchet/Maladie_de_Köhler-Mouchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6hler-Mouchet</t>
+          <t>Maladie_de_Köhler-Mouchet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Köhler-Mouchet est une ostéochondrite atteignant l'os naviculaire décrite pour la première fois en 1908 par le radiologue allemand Alban Köhler (1874–1947).
 La maladie touche habituellement l'enfant entre quatre et six ans avec une prédominance masculine. Elle se manifeste par des douleurs du médio-pied.
-Toutânkhamon en aurait été atteint[1].
-En radiographie conventionnelle la maladie se traduit par une condensation puis un aplatissement du naviculaire[2].
+Toutânkhamon en aurait été atteint.
+En radiographie conventionnelle la maladie se traduit par une condensation puis un aplatissement du naviculaire.
 </t>
         </is>
       </c>
